--- a/DOC/instruction.xlsx
+++ b/DOC/instruction.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12336" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView minimized="1" xWindow="12336" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$31</definedName>
@@ -18,10 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="298">
   <si>
     <t>指令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MFIH</t>
@@ -79,147 +80,147 @@
   </si>
   <si>
     <t>00100XXX00000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>00101XXXYYY00000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>00110XXXYYY00000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>01001XXXYYY00000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>01010XXXYYYIII00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>01011XXXYYYIII00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>指令类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>指令编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MFIH rx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>指令格式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>指令功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MFPC rx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MTIH rx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R[x]←PC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IH←R[x]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MTSP rx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SP←R[x]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AND rx ry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R[x]←R[x]&amp;R[y]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>OR rx ry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R[x]←R[x]|R[y]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NOT rx ry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SLT rx ry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R[x]←~R[y]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>T←(R[x]&lt;R[y])(有符号比较)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CMP rx ry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SLL rx ry immediate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>T←(R[x]!=R[y])</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SRA rx ry immediate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>if (immediate=0) then R[x]←R[y]&lt;&lt;8 else R[x]←R[y]&lt;&lt;immediate(无符号数)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>if (immediate=0) then R[x]←R[y]&gt;&gt;8 (算术右移)else R[x]←R[y]&gt;&gt;immediate(无符号数)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ADDU rx ry rz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R[z]←R[x]+R[y]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SUBU rx ry rz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R[z]←R[x]-R[y]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ADDSP</t>
@@ -250,107 +251,107 @@
   </si>
   <si>
     <t>10011XXXIIIIIIII</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ADDSP immediate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10001XXXIIIIIIII</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>01111XXXIIIIIIII</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LW_SP rx immediate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R[x]←MEM[SP+sign_extend(immediate)]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ADDIU rx immediate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R[x]←R[x]+sign_extend(immediate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SLTI rx immediate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>T←(R[x]&lt;sign_extend(immediate))(有符号比较)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R[x]←SP+sign_extend(immediate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LI rx immediate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R[x]←zero_extend(immediate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R[y]←R[x]+sign_extend(immediate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LW rx ry immediate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SW rx ry immediate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MEM[R[x]+sign_extend(immediate)]←R[y]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SW_SP rx immediate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MEM[SP+sign_extend(immediate)]←R[x]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10000XXXIIIIIIII</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10010XXXIIIIIIII</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10100XXXIIIIIIII</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10101XXXYYY0IIII</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10110XXXYYYIIIII</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10111XXXYYYIIIII</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
@@ -375,490 +376,490 @@
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11000IIIIIIIIIII</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>B immediate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>R[y]←MEM[R[x]+sign_extend(immediate)]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BEQZ rx immediate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BTEQZ immediate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BNEZ rx immediate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>JR</t>
   </si>
   <si>
     <t>J</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11101XXX00000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1110000000000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PC←PC+sign_extend(immediate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>JRRA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PC←RA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>JR rx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PC←R[x]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NOP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NOP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NOP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MEM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>WB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PC←PC+4</t>
   </si>
   <si>
     <t>PC←PC+4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←IH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rx←A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←PC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←rx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IH←A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SP←rx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←rx, B←ry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>C←rx&amp;ry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rx←C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>C←rx|ry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rx←B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rx←C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>C←A&lt;&lt;B(B=0时A&lt;&lt;8)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>C←A&gt;&gt;B(算术右移，B=0时A&gt;&gt;8)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←rx, B←ry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rz←C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SP←SP+sign_extend(immediate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←SP, B←sign_extend(immediate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>C←A+B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>C←A-B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SP←C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>D←MEM[C]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rx←D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←SP, B←sign_extend(immediate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←rx, B←sign_extend(immediate), C←SP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>D←B+C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MEM[D]←A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←rx, B←sign_extend(immediate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>C←A+B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rx←C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>if (A&lt;B) T←1 else T←0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rx←C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←zero_extend(immediate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ADDSP3 rx immediate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ADDIU3 rx ry immediate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>C←A+B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ry←C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←rx, B←sign_extend(immediate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←rx, B←sign_extend(immediate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>D←MEM[C]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ry←D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>D←A+B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MEM[D]←C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←rx, B←sign_extend(immediate), C←ry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←sign_extend(immediate), B←A&lt;&lt;2, C←PC+B, PC←C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>if (A!=B)T=1 else T=0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>if (A&lt;B)T=1 else T=0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PC←PC+4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>if(T=0) A←sign_extend(immediate), B←A&lt;&lt;2, C←PC+B, PC←C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←rx, if (A=0) B←sign_extend(immediate), C←B&lt;&lt;2,D←PC+C,PC←D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←rx, if (A!=0) B←sign_extend(immediate), C←B&lt;&lt;2,D←PC+C,PC←D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←RA, PC←RA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←rx, PC←A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Branch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Twrite</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MemtoReg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MemWrite</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MemRead</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Ttype</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ALUop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>00</t>
   </si>
   <si>
     <t>00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>000</t>
   </si>
   <si>
     <t>000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ALUsrc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RegWrite</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ADDSP3*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NOT*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SLT*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SLTI*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0000000000000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>JRRA*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rx←A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←ry, B←zero_extend(immediate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A←ry, B←zero_extend(immediate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>if (T=0) then PC←PC+sign_extend(immediate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>if (R[x]=0) then PC←PC+sign_extend(immediate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>if (R[x]!=0) then PC←PC+sign_extend(immediate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -875,7 +876,7 @@
       </rPr>
       <t>←IH</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -892,7 +893,7 @@
       </rPr>
       <t>←ry</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -909,299 +910,327 @@
       </rPr>
       <t>←~A</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>指令名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ADDIU </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ADDIU3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ADDSP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ADDU</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AND</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BEQZ</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BNEZ</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BTEQZ</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CMP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>JR</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>LI</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>LW</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>LW_SP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MFIH</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MFPC</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MTIH</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MTSP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>NOP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>OR</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SLL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SRA</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SUBU</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SW</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SW_SP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>JALR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ADDSP3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SLT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>01001XXXMMMMMMMM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>指令格式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>01000XXXYYY0MMMM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>01100011MMMMMMMM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11100XXXYYYZZZ01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11101XXXYYY01100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>00010MMMMMMMMMMM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>00100XXXMMMMMMMM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>00101XXXMMMMMMMM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>01100000MMMMMMMM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11101XXXYYY01010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11101XXX00000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>01101XXXMMMMMMMM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10011XXXYYYMMMMM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10010XXXMMMMMMMM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11110XXX00000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11101XXX01000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>指令编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0000100000000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11101XXXYYY01101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>00110XXXYYYMMM00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>00110XXXYYYMMM11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11100XXXYYYZZZ11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11011XXXYYYMMMMM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11010XXXMMMMMMMM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1110100000100000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11101XXX11000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>00000XXXMMMMMMMM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>01111XXXYYY00000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11101XXXYYY00010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11110XXX00000001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>01100100YYY00000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>JRRA*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MOVE*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11101XXXYYY01011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>01110XXXMMMMMMMM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CMPI#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NEG#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>普通寄存器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>特殊寄存器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>立即数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRRA*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JALR*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVE*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1281,27 +1310,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3338,7 +3370,7 @@
   <sortState ref="A2:S31">
     <sortCondition ref="C1"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3348,9 +3380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3737,7 +3769,248 @@
   <sortState ref="A2:C31">
     <sortCondition ref="A1"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="7">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="7">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="7">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="7">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="7">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="7">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="7">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="7">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="7">
+        <v>24</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="7">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="7">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="7">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="7">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="7">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="7">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
